--- a/quizsheets/dsaide_idcharacteristics.xlsx
+++ b/quizsheets/dsaide_idcharacteristics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,30 +370,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AppID</t>
+          <t>TaskID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TaskID</t>
+          <t>RecordID</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RecordID</t>
+          <t>Record</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Record</t>
+          <t>Note</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Answer</t>
         </is>
@@ -410,25 +405,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>T1R1</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>T1R1</t>
+          <t>Total number of recovered (at end of simulation)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>Total number of recovered (at end of simulation)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -445,25 +435,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>T1R2</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>T1R2</t>
+          <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Number susceptible left at end of simulation</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -480,25 +465,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>T2R1</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>T2R1</t>
+          <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>Number susceptible left at end of simulation</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -515,25 +495,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>2</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>T2R2</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>T2R2</t>
+          <t>Total/cumulative number who got infected</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>Total/cumulative number who got infected</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -550,25 +525,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>3</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>T3R1</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>T3R1</t>
+          <t>Number recovered at end of simulation</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>Number recovered at end of simulation</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -585,25 +555,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>3</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>T3R2</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>T3R2</t>
+          <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>Number susceptible left at end of simulation</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -620,25 +585,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>3</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>T3R3</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>T3R3</t>
+          <t>Total deaths</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>Total deaths</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -655,25 +615,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>4</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>T4R1</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>T4R1</t>
+          <t>Number of recovered at end of simulation</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>Number of recovered at end of simulation</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -690,25 +645,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>4</v>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>T4R2</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>T4R2</t>
+          <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>Number susceptible left at end of simulation</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -725,25 +675,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>4</v>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>T4R3</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>T4R3</t>
+          <t>Total deaths</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t>Total deaths</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -760,25 +705,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>5</v>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>T5R1</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>T5R1</t>
+          <t>Max number of pre-symptomatic</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>Max number of pre-symptomatic</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -795,25 +735,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>5</v>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T5R2</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>T5R2</t>
+          <t>Max number of infected</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t>Max number of infected</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -830,25 +765,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>5</v>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T5R3</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>T5R3</t>
+          <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t>Number susceptible left at end of simulation</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -865,25 +795,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>5</v>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>T5R4</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>T5R4</t>
+          <t>Total deaths</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t>Total deaths</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -900,25 +825,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>7</v>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>T7R1</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>T7R1</t>
+          <t>Max number of pre-symptomatic</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
-        <is>
-          <t>Max number of pre-symptomatic</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -935,25 +855,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>7</v>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>T7R2</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>T7R2</t>
+          <t>Max number of infected</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
-        <is>
-          <t>Max number of infected</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -970,25 +885,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>7</v>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T7R3</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>T7R3</t>
+          <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>Number susceptible left at end of simulation</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -1005,25 +915,20 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>idcharacteristics</t>
-        </is>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>7</v>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>T7R4</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>T7R4</t>
+          <t>Total deaths</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
-        <is>
-          <t>Total deaths at end of simulation</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>

--- a/quizsheets/dsaide_idcharacteristics.xlsx
+++ b/quizsheets/dsaide_idcharacteristics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,25 +370,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>AppID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>TaskID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>RecordID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Record</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Answer</t>
         </is>
@@ -405,20 +410,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>T1R1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Total number of recovered (at end of simulation)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -435,20 +445,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>T1R2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -465,20 +480,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>T2R1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -495,20 +515,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>T2R2</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Total/cumulative number who got infected</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -525,20 +550,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>T3R1</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Number recovered at end of simulation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -555,20 +585,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>T3R2</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -585,20 +620,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>T3R3</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Total deaths</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -615,20 +655,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>T4R1</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Number of recovered at end of simulation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -645,20 +690,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>T4R2</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -675,20 +725,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>T4R3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Total deaths</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -705,20 +760,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>T5R1</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Max number of pre-symptomatic</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -735,20 +795,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D13">
         <v>5</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>T5R2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Max number of infected</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -765,20 +830,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>T5R3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -795,20 +865,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>T5R4</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Total deaths</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -825,20 +900,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D16">
         <v>7</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>T7R1</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Max number of pre-symptomatic</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -855,20 +935,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D17">
         <v>7</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>T7R2</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Max number of infected</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -885,20 +970,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D18">
         <v>7</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>T7R3</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -915,20 +1005,25 @@
           <t>Characteristics of ID</t>
         </is>
       </c>
-      <c r="C19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>idcharacteristics</t>
+        </is>
+      </c>
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>T7R4</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Total deaths</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>Total deaths at end of simulation</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>

--- a/quizsheets/dsaide_idcharacteristics.xlsx
+++ b/quizsheets/dsaide_idcharacteristics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,30 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AppTitle</t>
+          <t>TaskID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TaskID</t>
+          <t>RecordID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RecordID</t>
+          <t>Record</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Record</t>
+          <t>Note</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Answer</t>
         </is>
@@ -402,23 +397,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>1</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>T1R1</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T1R1</t>
+          <t>Total number of recovered (at end of simulation)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>Total number of recovered (at end of simulation)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -432,23 +424,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>1</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>T1R2</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T1R2</t>
+          <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Number susceptible left at end of simulation</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -462,23 +451,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>2</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>T2R1</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T2R1</t>
+          <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>Number susceptible left at end of simulation</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -492,23 +478,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>2</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>T2R2</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T2R2</t>
+          <t>Total/cumulative number who got infected</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>Total/cumulative number who got infected</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -522,23 +505,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>3</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>T3R1</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T3R1</t>
+          <t>Number recovered at end of simulation</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>Number recovered at end of simulation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -552,23 +532,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>3</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>T3R2</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T3R2</t>
+          <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>Number susceptible left at end of simulation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -582,23 +559,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>3</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>T3R3</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T3R3</t>
+          <t>Total deaths</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>Total deaths</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -612,23 +586,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>4</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>T4R1</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T4R1</t>
+          <t>Number of recovered at end of simulation</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>Number of recovered at end of simulation</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -642,23 +613,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>4</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>T4R2</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T4R2</t>
+          <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
-        <is>
-          <t>Number susceptible left at end of simulation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -672,23 +640,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>4</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>T4R3</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T4R3</t>
+          <t>Total deaths</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>Total deaths</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -702,23 +667,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>5</v>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>T5R1</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>T5R1</t>
+          <t>Max number (peak) of pre-symptomatic (P)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
-        <is>
-          <t>Max number of pre-symptomatic</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -732,23 +694,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>5</v>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>T5R2</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>T5R2</t>
+          <t>Max number (peak) of symptomatic infected (I)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
-        <is>
-          <t>Max number of infected</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -762,23 +721,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>5</v>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>T5R3</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T5R3</t>
+          <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
-        <is>
-          <t>Number susceptible left at end of simulation</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -792,23 +748,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>5</v>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>T5R4</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>T5R4</t>
+          <t>Total deaths</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
-        <is>
-          <t>Total deaths</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -822,23 +775,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>7</v>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>T7R1</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T7R1</t>
+          <t>Max number of pre-symptomatic (P)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
-        <is>
-          <t>Max number of pre-symptomatic</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -852,23 +802,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>7</v>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>T7R2</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>T7R2</t>
+          <t>Max number of symptomatic infected (I)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>Max number of infected</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -882,23 +829,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>7</v>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>T7R3</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>T7R3</t>
+          <t>Number susceptible left at end of simulation</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
-        <is>
-          <t>Number susceptible left at end of simulation</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -912,23 +856,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Characteristics of ID</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>7</v>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>T7R4</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>T7R4</t>
+          <t>Total deaths</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
-        <is>
-          <t>Total deaths</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
